--- a/output/fit_clients/fit_round_151.xlsx
+++ b/output/fit_clients/fit_round_151.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1664636059.250662</v>
+        <v>2331604259.622854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1083731525181899</v>
+        <v>0.08574223096946175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0444251746510874</v>
+        <v>0.03176064889064919</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>832317980.1190796</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2626689758.013845</v>
+        <v>2253060741.288888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1579984348777635</v>
+        <v>0.1223134530128578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03599079585240354</v>
+        <v>0.0459223140813934</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1313345016.083941</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4216657415.276406</v>
+        <v>3671964964.298064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214991012285265</v>
+        <v>0.1099538365732147</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03247354005558456</v>
+        <v>0.0343021189608902</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2108328737.12493</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3799710210.579548</v>
+        <v>2884123238.764865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08549618637046011</v>
+        <v>0.09423711499206339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03234914253966426</v>
+        <v>0.04790528375879851</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>61</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1899855122.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2036085678.439082</v>
+        <v>2630809521.721027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1236303792919243</v>
+        <v>0.09040604738451691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03517564111697549</v>
+        <v>0.03450810028938139</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1018042864.873456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2486787007.736016</v>
+        <v>2702198775.892683</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08336394852425141</v>
+        <v>0.09035953172111212</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03648364427509837</v>
+        <v>0.03388714751359182</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>44</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1243393518.100296</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2676869282.293863</v>
+        <v>3722460692.030059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2137023072188503</v>
+        <v>0.1691168829727575</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02268992793262213</v>
+        <v>0.02918259836449786</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>48</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1338434665.588657</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1593374957.192041</v>
+        <v>2206060462.967315</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1295458791329698</v>
+        <v>0.1453676887691896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03045431363702193</v>
+        <v>0.02842550541538106</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>796687561.5964531</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5063091774.429206</v>
+        <v>5571000637.520906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627237774135854</v>
+        <v>0.2164543637321233</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05251546301222765</v>
+        <v>0.03512145313007164</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>64</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2531545991.365973</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2604670212.959909</v>
+        <v>4266349705.52426</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1328662115422528</v>
+        <v>0.160599509863681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0398283244850174</v>
+        <v>0.0308344965663641</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1302335021.790355</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2832271461.721836</v>
+        <v>2065840670.00699</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1450349802018969</v>
+        <v>0.1793399317458058</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04129985373746686</v>
+        <v>0.0488703624453513</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>52</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1416135733.475886</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3417101972.22894</v>
+        <v>4952020352.845285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08599723818215761</v>
+        <v>0.07285305492126028</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02085796284088563</v>
+        <v>0.02468747789387465</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1708551070.608376</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3452374277.094956</v>
+        <v>3823338060.550707</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1347686928234642</v>
+        <v>0.1443772532846739</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03717644972606926</v>
+        <v>0.04307106952123001</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1726187140.20151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1660841205.510647</v>
+        <v>1576406757.917142</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06828132106365634</v>
+        <v>0.06897711623248617</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03988208598696722</v>
+        <v>0.03175155623472121</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>830420724.6846632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2604416215.999916</v>
+        <v>2685891153.777226</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1116795915969291</v>
+        <v>0.0836578362287527</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04912057707168161</v>
+        <v>0.03121057513983812</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1302208129.44302</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3925586500.985183</v>
+        <v>4441745633.704282</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1353854002522612</v>
+        <v>0.1580158248909761</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0459680372526839</v>
+        <v>0.04710932896169988</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1962793288.682498</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2739572775.632923</v>
+        <v>3268438814.832157</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1118313045624129</v>
+        <v>0.1276264570739244</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0224173931133067</v>
+        <v>0.02676858830969884</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1369786436.850706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1315591676.426383</v>
+        <v>926113046.5824513</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1439886269251185</v>
+        <v>0.1890154832368005</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02177720716252068</v>
+        <v>0.02639004198151728</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>657795944.2326277</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2385811461.666131</v>
+        <v>2112708764.056</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1082904698456603</v>
+        <v>0.1243887688030966</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02926137767282898</v>
+        <v>0.02175191595711303</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1192905716.028921</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2435223484.896105</v>
+        <v>2535360750.243725</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07077416254536056</v>
+        <v>0.07809553890501147</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03095274493065871</v>
+        <v>0.04114842705085792</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1217611736.709185</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3974234221.596681</v>
+        <v>3786621954.31665</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1170488588454501</v>
+        <v>0.09019257226223765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04803557865158709</v>
+        <v>0.04226861490164015</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1987117113.951389</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>939102491.7772986</v>
+        <v>1192451865.58881</v>
       </c>
       <c r="F23" t="n">
-        <v>0.128551652322962</v>
+        <v>0.1169177966043475</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03834851361688576</v>
+        <v>0.03921746405531414</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>469551326.3003706</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4073289274.330707</v>
+        <v>3225436510.932625</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1084580058804472</v>
+        <v>0.117450714545507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03672670896157793</v>
+        <v>0.0295819254671901</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2036644600.199396</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1120901520.146551</v>
+        <v>1015570352.717419</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09571663625182072</v>
+        <v>0.1039942751524912</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01923160925590676</v>
+        <v>0.03002258508037319</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>560450796.2010195</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1202617197.298705</v>
+        <v>1456958933.717736</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1003105884491552</v>
+        <v>0.1052437700388404</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03230572279252712</v>
+        <v>0.03033762928467389</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601308620.2718022</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3184184198.920408</v>
+        <v>3707467018.076881</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1265384721035718</v>
+        <v>0.1507133643044684</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01808828468044015</v>
+        <v>0.01864182366295419</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1592092150.125313</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2559498744.820227</v>
+        <v>3268158524.501353</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1128859351965363</v>
+        <v>0.09587567024623864</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04798191965370628</v>
+        <v>0.04866041362208446</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1279749345.377239</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4681479118.204372</v>
+        <v>3678978229.338355</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1338392546652244</v>
+        <v>0.1482600599937494</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03083154588240689</v>
+        <v>0.0414053129415263</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2340739528.663123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1476504135.517012</v>
+        <v>2319258398.908664</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09225967965014532</v>
+        <v>0.1278579886102157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03264561124564215</v>
+        <v>0.0242696766417755</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>738252045.5491029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1393864051.192787</v>
+        <v>1001482754.863228</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1091445097175529</v>
+        <v>0.08118703705330989</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05195600631391242</v>
+        <v>0.04290905139365322</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>696931931.4024425</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1777843177.315742</v>
+        <v>1753222857.627506</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08324508479512842</v>
+        <v>0.1152541735146427</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02497073792109652</v>
+        <v>0.02513732780415987</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>888921714.5204335</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3051963788.58003</v>
+        <v>1993480808.652034</v>
       </c>
       <c r="F33" t="n">
-        <v>0.132927628504068</v>
+        <v>0.1601789239224866</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04772370782265008</v>
+        <v>0.04117088303084981</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>45</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1525981885.444388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1210225972.337342</v>
+        <v>1023134419.74364</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1198501100529946</v>
+        <v>0.1207701326147967</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02004104953366434</v>
+        <v>0.02664190864157673</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>605112989.5117618</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1214958953.375346</v>
+        <v>1299004983.460191</v>
       </c>
       <c r="F35" t="n">
-        <v>0.108148117723154</v>
+        <v>0.09675858593322549</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04151107056067058</v>
+        <v>0.03832471331156292</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>607479448.0960673</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2123577155.981254</v>
+        <v>3110731839.520765</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1461864420120884</v>
+        <v>0.1616801029426061</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02122395780554085</v>
+        <v>0.02695116912965364</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1061788630.073342</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2008968448.208842</v>
+        <v>2729846393.035978</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07082236003141633</v>
+        <v>0.1054963861435238</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03339325029672032</v>
+        <v>0.03989616618600344</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>41</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1004484252.574865</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1913225753.867354</v>
+        <v>2179438732.784773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1116638482681859</v>
+        <v>0.08197484585782824</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03655513387465718</v>
+        <v>0.03863825570876542</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>956612867.7784609</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1740129620.035961</v>
+        <v>1604859962.804996</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1930989250391134</v>
+        <v>0.1689134280533839</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02184011716616937</v>
+        <v>0.02067641616066</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>870064843.9577969</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1537544164.575289</v>
+        <v>1514005917.322155</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1524223989578359</v>
+        <v>0.1460525077205642</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04111439140114907</v>
+        <v>0.05641526980988094</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>768772039.0249591</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2266236442.101404</v>
+        <v>2446208177.028481</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1251806981844588</v>
+        <v>0.1266320117122541</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04610958654743778</v>
+        <v>0.03311831501828855</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1133118269.175751</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3669668465.582788</v>
+        <v>2781216522.676727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1149958078645661</v>
+        <v>0.1203546695919751</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03348953740258821</v>
+        <v>0.03966320023344932</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1834834239.280325</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3070446698.583101</v>
+        <v>2446303952.991745</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1655017014512393</v>
+        <v>0.1287608634723408</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01915225509393865</v>
+        <v>0.02247227715281316</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>51</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1535223340.556969</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634501183.176559</v>
+        <v>1702889278.80021</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0811849207405471</v>
+        <v>0.08244592728752813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03221811171915811</v>
+        <v>0.02441052992938003</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>817250624.9661257</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2516571417.258411</v>
+        <v>2204683577.787909</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1183734671744545</v>
+        <v>0.129376329936017</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03652978754466296</v>
+        <v>0.04871274314899423</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1258285751.49125</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5281643547.450988</v>
+        <v>3536654241.148317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1253050327619588</v>
+        <v>0.1188931922133335</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04374066688773794</v>
+        <v>0.05337024611793204</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>54</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2640821816.597128</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5185571027.838496</v>
+        <v>3289177855.225196</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1672252547758291</v>
+        <v>0.1612233536467183</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05616770748980219</v>
+        <v>0.0586298208386607</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>40</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2592785580.187157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4114746969.830743</v>
+        <v>3362648115.278785</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08330858169441556</v>
+        <v>0.07475215496282069</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02678999919053111</v>
+        <v>0.03304769178761372</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2057373512.569689</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1759186133.260924</v>
+        <v>1205795236.884253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1892822607707365</v>
+        <v>0.1445653814535265</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02700709474343007</v>
+        <v>0.02761380608331308</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>879593058.3212212</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3921477901.44681</v>
+        <v>2925006657.245724</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1204282455233251</v>
+        <v>0.1318667655958249</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03696146530668578</v>
+        <v>0.05115008493963633</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>51</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1960738944.977495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1277551686.822733</v>
+        <v>1303400996.91146</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1692457126270106</v>
+        <v>0.1407092771486675</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03409992974213575</v>
+        <v>0.05287288318542512</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>638775882.3407197</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4497657995.729285</v>
+        <v>4437439537.446801</v>
       </c>
       <c r="F52" t="n">
-        <v>0.126105251673175</v>
+        <v>0.1338166997097374</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05956617487000131</v>
+        <v>0.04647054059255322</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>62</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2248829025.015199</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3408025955.822797</v>
+        <v>3234680835.046504</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1562100792335495</v>
+        <v>0.1288015764613002</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02966511422382033</v>
+        <v>0.02203739266438828</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>43</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1704012982.104871</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3231949173.109877</v>
+        <v>3691019335.034376</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1203913223742041</v>
+        <v>0.1395707708148759</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0448530654886717</v>
+        <v>0.04877738306528982</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1615974590.261762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3648639767.400907</v>
+        <v>4197863147.190137</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2030877195376215</v>
+        <v>0.1499712465947379</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02746643195445516</v>
+        <v>0.03153466700844391</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>42</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1824319843.084681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1212714845.810863</v>
+        <v>1423168492.624937</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1169573046765033</v>
+        <v>0.1545228604859617</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04998108326856496</v>
+        <v>0.0449627166678105</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>606357507.705218</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4116227170.571418</v>
+        <v>4171149632.822693</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1327528540503853</v>
+        <v>0.1671771906237644</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02256367373192273</v>
+        <v>0.01845800083616711</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>48</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2058113683.379113</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1876867396.344304</v>
+        <v>1419802435.50469</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1284216044502615</v>
+        <v>0.1592935349012716</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02801920376319298</v>
+        <v>0.03317943397243019</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>938433694.8764149</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4178710705.285505</v>
+        <v>4017684129.250724</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0859305890698723</v>
+        <v>0.0973497863387295</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04742185395778171</v>
+        <v>0.03515189172016556</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>42</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2089355319.938354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3720071625.358342</v>
+        <v>3104324068.888365</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1828107696919151</v>
+        <v>0.1799955751250839</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02747204992480606</v>
+        <v>0.02363812777259807</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1860035958.522947</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2897760267.536121</v>
+        <v>2221443978.848255</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1551995358337283</v>
+        <v>0.1089830548891347</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02411369423019636</v>
+        <v>0.02084742199729053</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1448880123.840523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1307107248.62512</v>
+        <v>1847717251.293175</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1231650613712129</v>
+        <v>0.1616783532483684</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03376642843280987</v>
+        <v>0.04279180457284112</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>653553578.4160606</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3850372306.270737</v>
+        <v>5160101494.21166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09909414014925846</v>
+        <v>0.06786115487264618</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03182996506355063</v>
+        <v>0.04071943218198969</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1925186222.147439</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4725122042.200234</v>
+        <v>4560097290.573936</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1705152427132041</v>
+        <v>0.1647460599074525</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02799205749921648</v>
+        <v>0.02243057000492059</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>47</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2362561107.92588</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5693679672.084949</v>
+        <v>5344836234.670842</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1687135634357959</v>
+        <v>0.1534955964847991</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01942813036689141</v>
+        <v>0.022641638178618</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>54</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2846839753.524831</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4687780025.294235</v>
+        <v>4761527789.114755</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1230776474445255</v>
+        <v>0.1211542697570616</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03790670012556475</v>
+        <v>0.04434313489801858</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>44</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2343890023.043406</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3003900019.027636</v>
+        <v>2553288883.075358</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07928329481091181</v>
+        <v>0.07145142530197542</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0479947718276485</v>
+        <v>0.04069109215234541</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>49</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1501950027.416614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5738257400.555734</v>
+        <v>5228390181.851713</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1445912639625123</v>
+        <v>0.1180730903398109</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04594791175014686</v>
+        <v>0.03347153425489174</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>48</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2869128801.361892</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1743268316.535999</v>
+        <v>2309268969.731369</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1726263595262544</v>
+        <v>0.1675750548035066</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05085961294954691</v>
+        <v>0.05347752380380087</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>871634129.9710897</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2348993332.879503</v>
+        <v>3282444062.076806</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06834851514357407</v>
+        <v>0.09663670270452919</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04730550297775402</v>
+        <v>0.02992282437844157</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>43</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1174496601.011882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4215232117.419995</v>
+        <v>4845658803.205577</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1443508011386648</v>
+        <v>0.1787848443598495</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0316974927960051</v>
+        <v>0.02348997104418497</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>55</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2107616105.813013</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1642686758.287271</v>
+        <v>1823908695.218243</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06694576871560501</v>
+        <v>0.09549879784914653</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04782447658706981</v>
+        <v>0.03716961693991646</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>821343383.0974239</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3111520858.546389</v>
+        <v>2366192761.85557</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1018233466974142</v>
+        <v>0.07605655284142555</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04226184260503424</v>
+        <v>0.05075144838089602</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1555760415.012818</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2516489247.786127</v>
+        <v>3523622345.313061</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1445466271857583</v>
+        <v>0.11986225944505</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02798341305212902</v>
+        <v>0.02179740494415698</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1258244731.045807</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1666510576.381609</v>
+        <v>1934632673.073057</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1437912844331442</v>
+        <v>0.1008368009432321</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02643591036354116</v>
+        <v>0.02814691168806533</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>833255283.5610045</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4248444735.18651</v>
+        <v>3895436448.947466</v>
       </c>
       <c r="F76" t="n">
-        <v>0.124719423164055</v>
+        <v>0.1021830275833761</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02339755817338163</v>
+        <v>0.03197765162367668</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2124222362.690063</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1746446269.625667</v>
+        <v>1694178705.50632</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1663290280992412</v>
+        <v>0.1463826231661877</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02608789038807076</v>
+        <v>0.01934421797971547</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>873223158.8871117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4778524167.767935</v>
+        <v>4111886137.092742</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1183478165790059</v>
+        <v>0.08643233676425871</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05131695547015065</v>
+        <v>0.05253588761022918</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>53</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2389261993.853806</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1506384137.745219</v>
+        <v>1266919968.115727</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1477445210406771</v>
+        <v>0.1529213461960425</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02450960220123822</v>
+        <v>0.03890303592560821</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>753192104.1567023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4285686483.95433</v>
+        <v>4424606865.562015</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09800594922294059</v>
+        <v>0.08134065125863776</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03406075048105772</v>
+        <v>0.03328468457343133</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2142843255.619797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3288240728.414093</v>
+        <v>4403352449.659848</v>
       </c>
       <c r="F81" t="n">
-        <v>0.110875960508286</v>
+        <v>0.1236564280744463</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02232514026227375</v>
+        <v>0.02647553156998998</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1644120300.921121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4989260824.672342</v>
+        <v>3960433877.990319</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1429798370963719</v>
+        <v>0.1665316164112135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02488664645653051</v>
+        <v>0.02431601620510492</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2494630396.863068</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1531300813.360253</v>
+        <v>2208780088.465154</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1335833485735908</v>
+        <v>0.1451727534149546</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04279816362671702</v>
+        <v>0.04286297717258247</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>765650333.5626837</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1608207613.578967</v>
+        <v>1983248042.802809</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08994166726270252</v>
+        <v>0.08270655095336905</v>
       </c>
       <c r="G84" t="n">
-        <v>0.034716025943788</v>
+        <v>0.03324588806911038</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>804103869.1737154</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3547253605.468299</v>
+        <v>3302619375.244925</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1474354925282432</v>
+        <v>0.1212915428994453</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04491728643488645</v>
+        <v>0.05418956332272278</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>56</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1773626923.246585</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2670600407.777908</v>
+        <v>2799232082.710124</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1475649222688948</v>
+        <v>0.1066274800057038</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02674212350188047</v>
+        <v>0.02035184943174387</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>17</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1335300324.7383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1014152537.324124</v>
+        <v>1302621823.951405</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1450092166127106</v>
+        <v>0.1551751471791409</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04381410332996811</v>
+        <v>0.04223940960547903</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>507076276.5666173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3264432618.580519</v>
+        <v>2634066010.809813</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1274214508491379</v>
+        <v>0.1532741533255896</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02421386700360029</v>
+        <v>0.03666708721008045</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>59</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1632216365.818649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2566814003.288328</v>
+        <v>3038256842.633053</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1142250835863527</v>
+        <v>0.104077717388129</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02911779855962865</v>
+        <v>0.0310679642726959</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1283407071.482083</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2130598249.973309</v>
+        <v>1437966986.717124</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1134589511384969</v>
+        <v>0.1013226474677252</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04524213230822879</v>
+        <v>0.03985445201637511</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1065299219.072463</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1301952047.534978</v>
+        <v>1423608568.743184</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1381091500902797</v>
+        <v>0.154975305418086</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04054417751624022</v>
+        <v>0.05869171243814889</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>650976089.071569</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2854794709.44066</v>
+        <v>1961154736.920316</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0737130165693141</v>
+        <v>0.1049376768503681</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03648661354027024</v>
+        <v>0.02950386244852646</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>35</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1427397365.45921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4235801551.419416</v>
+        <v>3492495394.246629</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09885277892069584</v>
+        <v>0.1153253059278028</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04929166909455252</v>
+        <v>0.03856558104965263</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2117900761.04289</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2252728279.395061</v>
+        <v>2126512219.505634</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1482450076760315</v>
+        <v>0.1164970596424492</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04190424412049791</v>
+        <v>0.03170662075110999</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1126364170.879376</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2178685251.605096</v>
+        <v>2243576403.597159</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1015655854369249</v>
+        <v>0.1157497010342635</v>
       </c>
       <c r="G95" t="n">
-        <v>0.050997960175703</v>
+        <v>0.04152547796185182</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>36</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1089342685.233083</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2054194614.779039</v>
+        <v>2297445618.305228</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1096903438934881</v>
+        <v>0.09100395528464983</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0429174192241759</v>
+        <v>0.03478010928263264</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1027097288.535635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3296611492.153515</v>
+        <v>3597437534.580074</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1184833904050291</v>
+        <v>0.1526995437568667</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01903713371362138</v>
+        <v>0.02035178051655321</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>50</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1648305745.855865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2497047975.448731</v>
+        <v>3450157934.047894</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08406077606981904</v>
+        <v>0.1067778254703344</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02167199308977446</v>
+        <v>0.02254366528208353</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>40</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1248523938.270426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2691782309.640929</v>
+        <v>3023100423.114057</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09750298729346885</v>
+        <v>0.1262755052797651</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03472709890356616</v>
+        <v>0.02303296124694447</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>47</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1345891118.407099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4338995081.146426</v>
+        <v>4806116486.841749</v>
       </c>
       <c r="F100" t="n">
-        <v>0.150750075880885</v>
+        <v>0.1157781703293559</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02770847633745055</v>
+        <v>0.0265983531303342</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>46</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2169497638.274346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2757901249.979263</v>
+        <v>2477653248.050858</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1550040970612399</v>
+        <v>0.2182708118988589</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04860583031833068</v>
+        <v>0.05317976082043903</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>62</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1378950682.052657</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_151.xlsx
+++ b/output/fit_clients/fit_round_151.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2331604259.622854</v>
+        <v>1979205203.919312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08574223096946175</v>
+        <v>0.08345188392332077</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03176064889064919</v>
+        <v>0.03164861850256848</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2253060741.288888</v>
+        <v>2168821528.253452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1223134530128578</v>
+        <v>0.1813580350249785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0459223140813934</v>
+        <v>0.03743461247033927</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3671964964.298064</v>
+        <v>5188649387.936973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1099538365732147</v>
+        <v>0.1208710731890757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0343021189608902</v>
+        <v>0.02519670489965603</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2884123238.764865</v>
+        <v>4208575213.630547</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09423711499206339</v>
+        <v>0.08278001294316799</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04790528375879851</v>
+        <v>0.03499432304876564</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2630809521.721027</v>
+        <v>2119262085.942243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09040604738451691</v>
+        <v>0.1248287243948414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03450810028938139</v>
+        <v>0.05017545632273573</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2702198775.892683</v>
+        <v>2610249909.536616</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09035953172111212</v>
+        <v>0.07526714660423589</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03388714751359182</v>
+        <v>0.04413812175338962</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3722460692.030059</v>
+        <v>3670821408.771109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1691168829727575</v>
+        <v>0.1538923618287472</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02918259836449786</v>
+        <v>0.02586599787517884</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2206060462.967315</v>
+        <v>1400284075.070626</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1453676887691896</v>
+        <v>0.1876033257051399</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02842550541538106</v>
+        <v>0.02361214382731448</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5571000637.520906</v>
+        <v>5212219644.211047</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2164543637321233</v>
+        <v>0.1878917804472881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03512145313007164</v>
+        <v>0.05145090348448305</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4266349705.52426</v>
+        <v>2646759524.20475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.160599509863681</v>
+        <v>0.1814333979431271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0308344965663641</v>
+        <v>0.04151551798939004</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2065840670.00699</v>
+        <v>2200580285.924755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1793399317458058</v>
+        <v>0.1436667354653435</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0488703624453513</v>
+        <v>0.04581146917716215</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4952020352.845285</v>
+        <v>4319575694.677788</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07285305492126028</v>
+        <v>0.08587663368024125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02468747789387465</v>
+        <v>0.02077984525454086</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3823338060.550707</v>
+        <v>3291445967.380784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1443772532846739</v>
+        <v>0.1532388217849009</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04307106952123001</v>
+        <v>0.03821617717983112</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1576406757.917142</v>
+        <v>1360619830.510216</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06897711623248617</v>
+        <v>0.1030293493901623</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03175155623472121</v>
+        <v>0.04261860966468295</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2685891153.777226</v>
+        <v>1994264095.160815</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0836578362287527</v>
+        <v>0.1049197500290096</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03121057513983812</v>
+        <v>0.03226658907159629</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4441745633.704282</v>
+        <v>3550023862.791841</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1580158248909761</v>
+        <v>0.1281562416909704</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04710932896169988</v>
+        <v>0.03472866464938028</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3268438814.832157</v>
+        <v>3555084675.776428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1276264570739244</v>
+        <v>0.1426046512183065</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02676858830969884</v>
+        <v>0.02365889565255786</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>926113046.5824513</v>
+        <v>1056835073.174233</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1890154832368005</v>
+        <v>0.1294810388185541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02639004198151728</v>
+        <v>0.02423071139708955</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2112708764.056</v>
+        <v>2279969161.102665</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1243887688030966</v>
+        <v>0.1422815926302301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02175191595711303</v>
+        <v>0.02646134823724239</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2535360750.243725</v>
+        <v>2471518760.170861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07809553890501147</v>
+        <v>0.0634970495306216</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04114842705085792</v>
+        <v>0.03918742489672015</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3786621954.31665</v>
+        <v>3389672995.570106</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09019257226223765</v>
+        <v>0.1247372328093032</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04226861490164015</v>
+        <v>0.05420009354225252</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1192451865.58881</v>
+        <v>1361866011.191959</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1169177966043475</v>
+        <v>0.1259546953563668</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03921746405531414</v>
+        <v>0.04552912973745205</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3225436510.932625</v>
+        <v>2539937853.348686</v>
       </c>
       <c r="F24" t="n">
-        <v>0.117450714545507</v>
+        <v>0.1021768693756488</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0295819254671901</v>
+        <v>0.03670023769963413</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1015570352.717419</v>
+        <v>1195970139.934913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1039942751524912</v>
+        <v>0.09911352372786357</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03002258508037319</v>
+        <v>0.02978662556790498</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1456958933.717736</v>
+        <v>1020257792.885561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1052437700388404</v>
+        <v>0.07701058248059478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03033762928467389</v>
+        <v>0.03882286015756627</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3707467018.076881</v>
+        <v>4097992266.678361</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1507133643044684</v>
+        <v>0.1272436761213096</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01864182366295419</v>
+        <v>0.02572889655101908</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3268158524.501353</v>
+        <v>3731319290.933866</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09587567024623864</v>
+        <v>0.1372946542659604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04866041362208446</v>
+        <v>0.03169443191542089</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3678978229.338355</v>
+        <v>4564546876.846371</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1482600599937494</v>
+        <v>0.151687559752583</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0414053129415263</v>
+        <v>0.03011211946828501</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2319258398.908664</v>
+        <v>1950864011.764218</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1278579886102157</v>
+        <v>0.1167572856339041</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0242696766417755</v>
+        <v>0.03602918375442352</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1001482754.863228</v>
+        <v>1002886034.526036</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08118703705330989</v>
+        <v>0.08309435861652451</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04290905139365322</v>
+        <v>0.04757494029630897</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1753222857.627506</v>
+        <v>1853923831.762959</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1152541735146427</v>
+        <v>0.1132613344850345</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02513732780415987</v>
+        <v>0.03212441586074018</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1993480808.652034</v>
+        <v>2795150871.883078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1601789239224866</v>
+        <v>0.1780914850720115</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04117088303084981</v>
+        <v>0.05342323705043037</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1023134419.74364</v>
+        <v>1473008794.385482</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1207701326147967</v>
+        <v>0.1158091678689788</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02664190864157673</v>
+        <v>0.01818804078132865</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1299004983.460191</v>
+        <v>1245239359.485077</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09675858593322549</v>
+        <v>0.09327423276439423</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03832471331156292</v>
+        <v>0.03892454328026547</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3110731839.520765</v>
+        <v>2374217295.679796</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1616801029426061</v>
+        <v>0.1594404254190993</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02695116912965364</v>
+        <v>0.02033526278519452</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2729846393.035978</v>
+        <v>1845889273.132901</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1054963861435238</v>
+        <v>0.09668536781450054</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03989616618600344</v>
+        <v>0.03161126678668989</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2179438732.784773</v>
+        <v>1706776719.685472</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08197484585782824</v>
+        <v>0.1130763569840182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03863825570876542</v>
+        <v>0.02484426948411487</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1604859962.804996</v>
+        <v>1980129825.192767</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1689134280533839</v>
+        <v>0.1172644061997871</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02067641616066</v>
+        <v>0.02159579450082008</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1514005917.322155</v>
+        <v>1429531862.926402</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1460525077205642</v>
+        <v>0.1447700414181068</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05641526980988094</v>
+        <v>0.04741145049675402</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2446208177.028481</v>
+        <v>2304011192.051299</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1266320117122541</v>
+        <v>0.1055326796352278</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03311831501828855</v>
+        <v>0.04450824995773241</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2781216522.676727</v>
+        <v>3793611555.332828</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1203546695919751</v>
+        <v>0.1038735560447381</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03966320023344932</v>
+        <v>0.02889774001207298</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2446303952.991745</v>
+        <v>3067222595.870986</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1287608634723408</v>
+        <v>0.1558596715875577</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02247227715281316</v>
+        <v>0.02314403289965284</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1702889278.80021</v>
+        <v>2352535056.565685</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08244592728752813</v>
+        <v>0.08368590967478137</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02441052992938003</v>
+        <v>0.02451479055551583</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2204683577.787909</v>
+        <v>1642893522.674856</v>
       </c>
       <c r="F45" t="n">
-        <v>0.129376329936017</v>
+        <v>0.1179990430488718</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04871274314899423</v>
+        <v>0.03697947842054936</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3536654241.148317</v>
+        <v>4011383903.97808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1188931922133335</v>
+        <v>0.1658378394787052</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05337024611793204</v>
+        <v>0.06075013239761654</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3289177855.225196</v>
+        <v>4988731212.4375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1612233536467183</v>
+        <v>0.2008898157477158</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0586298208386607</v>
+        <v>0.04088726079433224</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3362648115.278785</v>
+        <v>2855778668.97869</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07475215496282069</v>
+        <v>0.0831987783892055</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03304769178761372</v>
+        <v>0.03835737455516861</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1205795236.884253</v>
+        <v>1231854548.800814</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1445653814535265</v>
+        <v>0.157408483130368</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02761380608331308</v>
+        <v>0.03498734099872146</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2925006657.245724</v>
+        <v>3096260061.962903</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1318667655958249</v>
+        <v>0.1350134116870986</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05115008493963633</v>
+        <v>0.04682105309361931</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1303400996.91146</v>
+        <v>1064351866.275631</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1407092771486675</v>
+        <v>0.1370753770169002</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05287288318542512</v>
+        <v>0.03941260631308927</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4437439537.446801</v>
+        <v>5226326663.923552</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1338166997097374</v>
+        <v>0.09130662684958585</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04647054059255322</v>
+        <v>0.0577979386484124</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3234680835.046504</v>
+        <v>2489713451.45858</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1288015764613002</v>
+        <v>0.1798808161088394</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02203739266438828</v>
+        <v>0.03192792450430125</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3691019335.034376</v>
+        <v>4009707038.664616</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1395707708148759</v>
+        <v>0.1605518586660376</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04877738306528982</v>
+        <v>0.04011009744353757</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4197863147.190137</v>
+        <v>4140179521.712359</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1499712465947379</v>
+        <v>0.1809123634060298</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03153466700844391</v>
+        <v>0.02298709310504524</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1423168492.624937</v>
+        <v>1656362901.587464</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1545228604859617</v>
+        <v>0.1347985651633395</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0449627166678105</v>
+        <v>0.04148948927073167</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4171149632.822693</v>
+        <v>2976230107.826176</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1671771906237644</v>
+        <v>0.1588427199925491</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01845800083616711</v>
+        <v>0.01903055567165983</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1419802435.50469</v>
+        <v>1219458042.874657</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1592935349012716</v>
+        <v>0.1851465407182726</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03317943397243019</v>
+        <v>0.03748838767469407</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4017684129.250724</v>
+        <v>4280476194.372972</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0973497863387295</v>
+        <v>0.1294086211325721</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03515189172016556</v>
+        <v>0.0306592780821929</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3104324068.888365</v>
+        <v>2843096286.93798</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1799955751250839</v>
+        <v>0.1922977297808586</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02363812777259807</v>
+        <v>0.02593486696896722</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2221443978.848255</v>
+        <v>2682633257.80871</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1089830548891347</v>
+        <v>0.1099600432466391</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02084742199729053</v>
+        <v>0.02038093340178967</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1847717251.293175</v>
+        <v>1294999583.461428</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1616783532483684</v>
+        <v>0.1206650791447739</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04279180457284112</v>
+        <v>0.031254038126284</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5160101494.21166</v>
+        <v>4287608038.281382</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06786115487264618</v>
+        <v>0.09228407652107903</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04071943218198969</v>
+        <v>0.0384364181502155</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4560097290.573936</v>
+        <v>3394759682.024876</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1647460599074525</v>
+        <v>0.1157098745237629</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02243057000492059</v>
+        <v>0.02598428647477649</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5344836234.670842</v>
+        <v>5939394437.193313</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1534955964847991</v>
+        <v>0.1207180483722946</v>
       </c>
       <c r="G65" t="n">
-        <v>0.022641638178618</v>
+        <v>0.02425067263563528</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4761527789.114755</v>
+        <v>4279307893.886246</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1211542697570616</v>
+        <v>0.1327162317262947</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04434313489801858</v>
+        <v>0.03327048489652833</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2553288883.075358</v>
+        <v>2487488988.353739</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07145142530197542</v>
+        <v>0.08497831359301514</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04069109215234541</v>
+        <v>0.0356954303863727</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5228390181.851713</v>
+        <v>4744105494.940746</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1180730903398109</v>
+        <v>0.0977964076882737</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03347153425489174</v>
+        <v>0.04776607054329682</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2309268969.731369</v>
+        <v>1535038680.994385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1675750548035066</v>
+        <v>0.1755966213930047</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05347752380380087</v>
+        <v>0.0572761279148743</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3282444062.076806</v>
+        <v>2860771989.933824</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09663670270452919</v>
+        <v>0.08173341716127636</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02992282437844157</v>
+        <v>0.04439401666399747</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4845658803.205577</v>
+        <v>3690882357.477583</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1787848443598495</v>
+        <v>0.1197349755909969</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02348997104418497</v>
+        <v>0.02440262750887173</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1823908695.218243</v>
+        <v>2224261192.18766</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09549879784914653</v>
+        <v>0.08049494358597888</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03716961693991646</v>
+        <v>0.04447559191497678</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2366192761.85557</v>
+        <v>3296337222.603863</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07605655284142555</v>
+        <v>0.08430557116028202</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05075144838089602</v>
+        <v>0.05047925494396253</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3523622345.313061</v>
+        <v>2935809805.076127</v>
       </c>
       <c r="F74" t="n">
-        <v>0.11986225944505</v>
+        <v>0.1496753961914678</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02179740494415698</v>
+        <v>0.03452584156001141</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1934632673.073057</v>
+        <v>1898334128.05945</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1008368009432321</v>
+        <v>0.1052017333736329</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02814691168806533</v>
+        <v>0.03774507612311015</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3895436448.947466</v>
+        <v>4253949306.740349</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1021830275833761</v>
+        <v>0.07945897709174347</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03197765162367668</v>
+        <v>0.03293509020850894</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1694178705.50632</v>
+        <v>1416930618.207688</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1463826231661877</v>
+        <v>0.1859245809970069</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01934421797971547</v>
+        <v>0.02781162099996426</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4111886137.092742</v>
+        <v>2952233249.179039</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08643233676425871</v>
+        <v>0.133223970960852</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05253588761022918</v>
+        <v>0.04906544820792721</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1266919968.115727</v>
+        <v>1863644828.870342</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1529213461960425</v>
+        <v>0.1414492228006441</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03890303592560821</v>
+        <v>0.02448757367751692</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4424606865.562015</v>
+        <v>4524884459.312194</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08134065125863776</v>
+        <v>0.0773736072915655</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03328468457343133</v>
+        <v>0.02590501007071636</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4403352449.659848</v>
+        <v>4055492917.6342</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1236564280744463</v>
+        <v>0.1100960194857181</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02647553156998998</v>
+        <v>0.02373832835479858</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3960433877.990319</v>
+        <v>4548728631.165019</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1665316164112135</v>
+        <v>0.1598130876667617</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02431601620510492</v>
+        <v>0.01927451727954186</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2208780088.465154</v>
+        <v>1829245864.639134</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1451727534149546</v>
+        <v>0.107928419919306</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04286297717258247</v>
+        <v>0.04009321432054292</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1983248042.802809</v>
+        <v>1886636670.966439</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08270655095336905</v>
+        <v>0.1204698141542463</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03324588806911038</v>
+        <v>0.04479583799785493</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3302619375.244925</v>
+        <v>3387016966.339609</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1212915428994453</v>
+        <v>0.1553863754107397</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05418956332272278</v>
+        <v>0.04521577987127274</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2799232082.710124</v>
+        <v>1696818357.103936</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1066274800057038</v>
+        <v>0.1663540526187063</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02035184943174387</v>
+        <v>0.01912817211949537</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302621823.951405</v>
+        <v>1366013991.981266</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1551751471791409</v>
+        <v>0.1614143159776746</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04223940960547903</v>
+        <v>0.0362142493506115</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2634066010.809813</v>
+        <v>3713100309.944737</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1532741533255896</v>
+        <v>0.176203629271869</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03666708721008045</v>
+        <v>0.0254437236815145</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3038256842.633053</v>
+        <v>3103427689.216393</v>
       </c>
       <c r="F89" t="n">
-        <v>0.104077717388129</v>
+        <v>0.15923888836322</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0310679642726959</v>
+        <v>0.04156812440128226</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1437966986.717124</v>
+        <v>1581684250.154503</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1013226474677252</v>
+        <v>0.0852114869062079</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03985445201637511</v>
+        <v>0.04530969487047358</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1423608568.743184</v>
+        <v>1602357095.946034</v>
       </c>
       <c r="F91" t="n">
-        <v>0.154975305418086</v>
+        <v>0.1282292469128728</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05869171243814889</v>
+        <v>0.0375594791004155</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1961154736.920316</v>
+        <v>2395291629.698678</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1049376768503681</v>
+        <v>0.08395044117455289</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02950386244852646</v>
+        <v>0.04643423805292936</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3492495394.246629</v>
+        <v>4910940554.212161</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1153253059278028</v>
+        <v>0.08817301140599894</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03856558104965263</v>
+        <v>0.05332377365336029</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2126512219.505634</v>
+        <v>1884381242.004941</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1164970596424492</v>
+        <v>0.1233614748609587</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03170662075110999</v>
+        <v>0.04028457458348376</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2243576403.597159</v>
+        <v>2206840042.636078</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1157497010342635</v>
+        <v>0.09998384146056032</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04152547796185182</v>
+        <v>0.04850576769031512</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2297445618.305228</v>
+        <v>1483098908.092398</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09100395528464983</v>
+        <v>0.1415585351743909</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03478010928263264</v>
+        <v>0.0423818313378118</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3597437534.580074</v>
+        <v>4914049400.001595</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1526995437568667</v>
+        <v>0.1257567910647585</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02035178051655321</v>
+        <v>0.0230330385045033</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3450157934.047894</v>
+        <v>3689204811.583708</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1067778254703344</v>
+        <v>0.1124751514596816</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02254366528208353</v>
+        <v>0.03207850854765608</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3023100423.114057</v>
+        <v>2847370802.38236</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1262755052797651</v>
+        <v>0.09272327133548662</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02303296124694447</v>
+        <v>0.03504367457523525</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4806116486.841749</v>
+        <v>4313069581.848546</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1157781703293559</v>
+        <v>0.1586041999281383</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0265983531303342</v>
+        <v>0.02129893383194506</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2477653248.050858</v>
+        <v>2852788337.664676</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2182708118988589</v>
+        <v>0.167418274277308</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05317976082043903</v>
+        <v>0.03543709826345968</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_151.xlsx
+++ b/output/fit_clients/fit_round_151.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1979205203.919312</v>
+        <v>2400209608.648363</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08345188392332077</v>
+        <v>0.0825183487248851</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03164861850256848</v>
+        <v>0.04477694739702188</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2168821528.253452</v>
+        <v>1831410606.893439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1813580350249785</v>
+        <v>0.1742941876139644</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03743461247033927</v>
+        <v>0.04690217921114009</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5188649387.936973</v>
+        <v>3512354435.21601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1208710731890757</v>
+        <v>0.1668546009175978</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02519670489965603</v>
+        <v>0.03199235998056035</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>151</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4208575213.630547</v>
+        <v>2626450884.883656</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08278001294316799</v>
+        <v>0.1031371480761024</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03499432304876564</v>
+        <v>0.04019779547726812</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="K5" t="n">
+        <v>53.25754737805676</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2119262085.942243</v>
+        <v>2104554366.0002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248287243948414</v>
+        <v>0.109239656054436</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05017545632273573</v>
+        <v>0.04514441369947936</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2610249909.536616</v>
+        <v>3155658695.384807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07526714660423589</v>
+        <v>0.08384550011172409</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04413812175338962</v>
+        <v>0.04287723460127668</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3670821408.771109</v>
+        <v>3127602889.451407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1538923618287472</v>
+        <v>0.1869221353345086</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02586599787517884</v>
+        <v>0.02685123667835596</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1400284075.070626</v>
+        <v>1809624954.080063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1876033257051399</v>
+        <v>0.1925310832524857</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02361214382731448</v>
+        <v>0.03583737565239855</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5212219644.211047</v>
+        <v>4809926598.834135</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1878917804472881</v>
+        <v>0.1897635457189065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05145090348448305</v>
+        <v>0.05048544517597447</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>139</v>
+      </c>
+      <c r="J10" t="n">
+        <v>151</v>
+      </c>
+      <c r="K10" t="n">
+        <v>151.3202051141056</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2646759524.20475</v>
+        <v>3229036643.090817</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1814333979431271</v>
+        <v>0.142419669289675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04151551798939004</v>
+        <v>0.03589932065904364</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K11" t="n">
+        <v>77.12230213048157</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2200580285.924755</v>
+        <v>2122462134.734854</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1436667354653435</v>
+        <v>0.1396668668561008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04581146917716215</v>
+        <v>0.05218630328782864</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4319575694.677788</v>
+        <v>5143124810.335361</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08587663368024125</v>
+        <v>0.09557323696092156</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02077984525454086</v>
+        <v>0.01939773499839677</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>73</v>
+      </c>
+      <c r="J13" t="n">
+        <v>150</v>
+      </c>
+      <c r="K13" t="n">
+        <v>136.1125312366978</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3291445967.380784</v>
+        <v>3404311740.877691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1532388217849009</v>
+        <v>0.1835795734218322</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03821617717983112</v>
+        <v>0.04405117587768645</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1360619830.510216</v>
+        <v>1580365098.258825</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1030293493901623</v>
+        <v>0.08029431761359401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04261860966468295</v>
+        <v>0.04358024160513712</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1994264095.160815</v>
+        <v>1772747686.746955</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1049197500290096</v>
+        <v>0.1036300362762026</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03226658907159629</v>
+        <v>0.03670707902958172</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3550023862.791841</v>
+        <v>4119122276.986776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1281562416909704</v>
+        <v>0.1211320394781925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03472866464938028</v>
+        <v>0.03393064686634416</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>73</v>
+      </c>
+      <c r="J17" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" t="n">
+        <v>105.9269078973026</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3555084675.776428</v>
+        <v>2475520140.430319</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1426046512183065</v>
+        <v>0.1674883239544454</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02365889565255786</v>
+        <v>0.02334123066918036</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1056835073.174233</v>
+        <v>1373752120.026183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1294810388185541</v>
+        <v>0.1458162205193022</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02423071139708955</v>
+        <v>0.01699183558490479</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2279969161.102665</v>
+        <v>2318580987.926537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1422815926302301</v>
+        <v>0.1251089498609247</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02646134823724239</v>
+        <v>0.02122904370551832</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2471518760.170861</v>
+        <v>1924072534.647181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0634970495306216</v>
+        <v>0.07637175053355923</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03918742489672015</v>
+        <v>0.04230774808738607</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3389672995.570106</v>
+        <v>2482318938.322818</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1247372328093032</v>
+        <v>0.1298457397971063</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05420009354225252</v>
+        <v>0.05276994780065574</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1361866011.191959</v>
+        <v>1274962654.401246</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1259546953563668</v>
+        <v>0.1508656631734367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04552912973745205</v>
+        <v>0.04183327962899189</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2539937853.348686</v>
+        <v>3842746144.402462</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1021768693756488</v>
+        <v>0.1347097169319735</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03670023769963413</v>
+        <v>0.03415325481631884</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>44</v>
+      </c>
+      <c r="J24" t="n">
+        <v>151</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1195970139.934913</v>
+        <v>1131394881.243809</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09911352372786357</v>
+        <v>0.07932387975976685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02978662556790498</v>
+        <v>0.021921057891748</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1020257792.885561</v>
+        <v>1450580612.561107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07701058248059478</v>
+        <v>0.08798136971717481</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03882286015756627</v>
+        <v>0.02793161893054209</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4097992266.678361</v>
+        <v>3886544645.076749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1272436761213096</v>
+        <v>0.1176115097358854</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02572889655101908</v>
+        <v>0.01810867480484109</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>59</v>
+      </c>
+      <c r="J27" t="n">
+        <v>151</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3731319290.933866</v>
+        <v>2907640433.266754</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1372946542659604</v>
+        <v>0.09892603844597354</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03169443191542089</v>
+        <v>0.0450919967109565</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4564546876.846371</v>
+        <v>5914470737.46397</v>
       </c>
       <c r="F29" t="n">
-        <v>0.151687559752583</v>
+        <v>0.1334009797391607</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03011211946828501</v>
+        <v>0.04374611988238704</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>140</v>
+      </c>
+      <c r="J29" t="n">
+        <v>151</v>
+      </c>
+      <c r="K29" t="n">
+        <v>162.4986012253204</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1950864011.764218</v>
+        <v>1885268732.047727</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1167572856339041</v>
+        <v>0.09530147526284521</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03602918375442352</v>
+        <v>0.03428197692390106</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1002886034.526036</v>
+        <v>1419566600.029279</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08309435861652451</v>
+        <v>0.1024031827101617</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04757494029630897</v>
+        <v>0.03453982171438599</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1853923831.762959</v>
+        <v>1283523958.512913</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1132613344850345</v>
+        <v>0.1163944455986348</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03212441586074018</v>
+        <v>0.02595237374289227</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2795150871.883078</v>
+        <v>1947176188.321797</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1780914850720115</v>
+        <v>0.1790255184757846</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05342323705043037</v>
+        <v>0.05627394021227651</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1473008794.385482</v>
+        <v>1428816773.897194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1158091678689788</v>
+        <v>0.09398219798748657</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01818804078132865</v>
+        <v>0.02846066557743709</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1245239359.485077</v>
+        <v>1087275754.879758</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09327423276439423</v>
+        <v>0.1145805232634856</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03892454328026547</v>
+        <v>0.03075613265132333</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2374217295.679796</v>
+        <v>2259538793.435382</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1594404254190993</v>
+        <v>0.1565699662641103</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02033526278519452</v>
+        <v>0.02158174390515766</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1845889273.132901</v>
+        <v>1924552969.356824</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09668536781450054</v>
+        <v>0.09236387347551994</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03161126678668989</v>
+        <v>0.03825889218870557</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1706776719.685472</v>
+        <v>1599186402.010473</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1130763569840182</v>
+        <v>0.10256071958167</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02484426948411487</v>
+        <v>0.02582234748521364</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1980129825.192767</v>
+        <v>1485197054.859311</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1172644061997871</v>
+        <v>0.146052426162079</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02159579450082008</v>
+        <v>0.02715852685145929</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1429531862.926402</v>
+        <v>1566177988.246079</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1447700414181068</v>
+        <v>0.1146406605746616</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04741145049675402</v>
+        <v>0.05115065495496796</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2304011192.051299</v>
+        <v>2241958223.071987</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1055326796352278</v>
+        <v>0.1391074469730226</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04450824995773241</v>
+        <v>0.02948582439814169</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3793611555.332828</v>
+        <v>4012994833.933615</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1038735560447381</v>
+        <v>0.1161586265375948</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02889774001207298</v>
+        <v>0.03869305844836183</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>55</v>
+      </c>
+      <c r="J42" t="n">
+        <v>150</v>
+      </c>
+      <c r="K42" t="n">
+        <v>114.8255588737031</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3067222595.870986</v>
+        <v>1920004033.323413</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1558596715875577</v>
+        <v>0.1847272970888677</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02314403289965284</v>
+        <v>0.01802701598410633</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2352535056.565685</v>
+        <v>1673745367.581202</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08368590967478137</v>
+        <v>0.07658307239564961</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02451479055551583</v>
+        <v>0.02777948962603606</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1642893522.674856</v>
+        <v>1986981020.202895</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1179990430488718</v>
+        <v>0.180795734077844</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03697947842054936</v>
+        <v>0.0361693942468619</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4011383903.97808</v>
+        <v>5546136287.863346</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1658378394787052</v>
+        <v>0.1312609244497125</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06075013239761654</v>
+        <v>0.05758473278613516</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>85</v>
+      </c>
+      <c r="J46" t="n">
+        <v>151</v>
+      </c>
+      <c r="K46" t="n">
+        <v>140.7806147190356</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4988731212.4375</v>
+        <v>3122485179.694894</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2008898157477158</v>
+        <v>0.1732573698084787</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04088726079433224</v>
+        <v>0.05399809156482357</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>67</v>
+      </c>
+      <c r="J47" t="n">
+        <v>149</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2855778668.97869</v>
+        <v>4569907107.766674</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0831987783892055</v>
+        <v>0.07012484523014903</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03835737455516861</v>
+        <v>0.03093685563013331</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>65</v>
+      </c>
+      <c r="J48" t="n">
+        <v>151</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1231854548.800814</v>
+        <v>1792987278.562215</v>
       </c>
       <c r="F49" t="n">
-        <v>0.157408483130368</v>
+        <v>0.1583315966200713</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03498734099872146</v>
+        <v>0.04306383940716548</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3096260061.962903</v>
+        <v>2827706691.156719</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1350134116870986</v>
+        <v>0.1586850054020415</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04682105309361931</v>
+        <v>0.04504641145838165</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>147</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1064351866.275631</v>
+        <v>1156644889.239934</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1370753770169002</v>
+        <v>0.1576044799403073</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03941260631308927</v>
+        <v>0.04431063832176035</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5226326663.923552</v>
+        <v>5256984370.887047</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09130662684958585</v>
+        <v>0.1223328676714664</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0577979386484124</v>
+        <v>0.06185826712360569</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>111</v>
+      </c>
+      <c r="J52" t="n">
+        <v>151</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2489713451.45858</v>
+        <v>3647266054.182318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1798808161088394</v>
+        <v>0.1305280970722762</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03192792450430125</v>
+        <v>0.02918107966641834</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4009707038.664616</v>
+        <v>4139333348.765922</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1605518586660376</v>
+        <v>0.1566632197653214</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04011009744353757</v>
+        <v>0.04308626990222528</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>71</v>
+      </c>
+      <c r="J54" t="n">
+        <v>151</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4140179521.712359</v>
+        <v>3044516437.407193</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1809123634060298</v>
+        <v>0.1901308791831602</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02298709310504524</v>
+        <v>0.02581954305210982</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>69</v>
+      </c>
+      <c r="J55" t="n">
+        <v>149</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1656362901.587464</v>
+        <v>1193762306.017123</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1347985651633395</v>
+        <v>0.1052159711272559</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04148948927073167</v>
+        <v>0.05203390016145078</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2976230107.826176</v>
+        <v>4252894837.0676</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1588427199925491</v>
+        <v>0.125875365042326</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01903055567165983</v>
+        <v>0.02366450810790649</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>61</v>
+      </c>
+      <c r="J57" t="n">
+        <v>151</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1219458042.874657</v>
+        <v>1869680295.298814</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1851465407182726</v>
+        <v>0.1376412356357337</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03748838767469407</v>
+        <v>0.03941605188471904</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2512,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4280476194.372972</v>
+        <v>3491197564.651617</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1294086211325721</v>
+        <v>0.1062916264583315</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0306592780821929</v>
+        <v>0.04931148335083271</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>73</v>
+      </c>
+      <c r="J59" t="n">
+        <v>151</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2547,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2843096286.93798</v>
+        <v>2621638926.732172</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1922977297808586</v>
+        <v>0.1293234110529378</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02593486696896722</v>
+        <v>0.03025657309980906</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="n">
+        <v>47.67058276937427</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2682633257.80871</v>
+        <v>3360815558.19721</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1099600432466391</v>
+        <v>0.1362215179731819</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02038093340178967</v>
+        <v>0.02224381393161564</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294999583.461428</v>
+        <v>1591566464.59583</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1206650791447739</v>
+        <v>0.1943050808483732</v>
       </c>
       <c r="G62" t="n">
-        <v>0.031254038126284</v>
+        <v>0.04108439019998597</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4287608038.281382</v>
+        <v>5323549316.099101</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09228407652107903</v>
+        <v>0.08806846495419417</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0384364181502155</v>
+        <v>0.03329722618349924</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>74</v>
+      </c>
+      <c r="J63" t="n">
+        <v>150</v>
+      </c>
+      <c r="K63" t="n">
+        <v>127.6195482597267</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3394759682.024876</v>
+        <v>4771020925.267972</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1157098745237629</v>
+        <v>0.1246794153978958</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02598428647477649</v>
+        <v>0.02315824662793067</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>150</v>
+      </c>
+      <c r="K64" t="n">
+        <v>131.5274073266903</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5939394437.193313</v>
+        <v>4771472748.436523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1207180483722946</v>
+        <v>0.1625130678604202</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02425067263563528</v>
+        <v>0.02574827739563547</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>125</v>
+      </c>
+      <c r="J65" t="n">
+        <v>151</v>
+      </c>
+      <c r="K65" t="n">
+        <v>142.5064964834919</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4279307893.886246</v>
+        <v>4336731672.303083</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1327162317262947</v>
+        <v>0.1435384987729049</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03327048489652833</v>
+        <v>0.03683390363572045</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>74</v>
+      </c>
+      <c r="J66" t="n">
+        <v>151</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2487488988.353739</v>
+        <v>2881738149.552994</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08497831359301514</v>
+        <v>0.08856041287330178</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0356954303863727</v>
+        <v>0.04738495340580604</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4744105494.940746</v>
+        <v>4838977899.724419</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0977964076882737</v>
+        <v>0.1080446811636886</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04776607054329682</v>
+        <v>0.03424129356975029</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>76</v>
+      </c>
+      <c r="J68" t="n">
+        <v>150</v>
+      </c>
+      <c r="K68" t="n">
+        <v>130.6365307819242</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1535038680.994385</v>
+        <v>1782694808.107085</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1755966213930047</v>
+        <v>0.1160501138203171</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0572761279148743</v>
+        <v>0.05785532333990379</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2860771989.933824</v>
+        <v>2285005745.818976</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08173341716127636</v>
+        <v>0.07731174842797471</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04439401666399747</v>
+        <v>0.04449250423939904</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3690882357.477583</v>
+        <v>3787551682.065711</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1197349755909969</v>
+        <v>0.1759455244170472</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02440262750887173</v>
+        <v>0.03109044998312223</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>119</v>
+      </c>
+      <c r="J71" t="n">
+        <v>151</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2224261192.18766</v>
+        <v>2254620104.788037</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08049494358597888</v>
+        <v>0.08520905161687654</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04447559191497678</v>
+        <v>0.04021453865901013</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3296337222.603863</v>
+        <v>3027272095.222939</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08430557116028202</v>
+        <v>0.1017708905055162</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05047925494396253</v>
+        <v>0.04045990713836205</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2935809805.076127</v>
+        <v>3119799084.553349</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1496753961914678</v>
+        <v>0.1758644519113624</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03452584156001141</v>
+        <v>0.03430673460618597</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1898334128.05945</v>
+        <v>1532896489.812515</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1052017333736329</v>
+        <v>0.1459808098663899</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03774507612311015</v>
+        <v>0.02597861523239572</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4253949306.740349</v>
+        <v>4508912448.828544</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07945897709174347</v>
+        <v>0.09620464144367684</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03293509020850894</v>
+        <v>0.0213544007788556</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>69</v>
+      </c>
+      <c r="J76" t="n">
+        <v>150</v>
+      </c>
+      <c r="K76" t="n">
+        <v>113.0974486454693</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1416930618.207688</v>
+        <v>1482255328.856169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1859245809970069</v>
+        <v>0.1871746533713065</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02781162099996426</v>
+        <v>0.02321403852964089</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2952233249.179039</v>
+        <v>2973609346.232418</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133223970960852</v>
+        <v>0.1058124918684429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04906544820792721</v>
+        <v>0.05242884223591843</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>76</v>
+      </c>
+      <c r="J78" t="n">
+        <v>150</v>
+      </c>
+      <c r="K78" t="n">
+        <v>63.23552762501487</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1863644828.870342</v>
+        <v>1339809659.787955</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1414492228006441</v>
+        <v>0.1423476697802343</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02448757367751692</v>
+        <v>0.03790299974801644</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4524884459.312194</v>
+        <v>5481742669.532527</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0773736072915655</v>
+        <v>0.08262602116471338</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02590501007071636</v>
+        <v>0.02691575427426087</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>73</v>
+      </c>
+      <c r="J80" t="n">
+        <v>151</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4055492917.6342</v>
+        <v>4304177153.788769</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1100960194857181</v>
+        <v>0.137363866403119</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02373832835479858</v>
+        <v>0.02207406838900564</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>69</v>
+      </c>
+      <c r="J81" t="n">
+        <v>150</v>
+      </c>
+      <c r="K81" t="n">
+        <v>111.3183021182789</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4548728631.165019</v>
+        <v>5672371655.730241</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1598130876667617</v>
+        <v>0.1429472059255021</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01927451727954186</v>
+        <v>0.02599496480309247</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>109</v>
+      </c>
+      <c r="J82" t="n">
+        <v>151</v>
+      </c>
+      <c r="K82" t="n">
+        <v>147.0128955555497</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1829245864.639134</v>
+        <v>2146714083.82275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107928419919306</v>
+        <v>0.1451421313755993</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04009321432054292</v>
+        <v>0.04233090723744959</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1886636670.966439</v>
+        <v>2176283195.417369</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1204698141542463</v>
+        <v>0.1062347222252734</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04479583799785493</v>
+        <v>0.04728166195839741</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3387016966.339609</v>
+        <v>2292034818.682257</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1553863754107397</v>
+        <v>0.1478555855322287</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04521577987127274</v>
+        <v>0.05421047169274521</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1696818357.103936</v>
+        <v>2224074189.083532</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1663540526187063</v>
+        <v>0.1367542442270951</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01912817211949537</v>
+        <v>0.01973602791561535</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1366013991.981266</v>
+        <v>1026061661.874386</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1614143159776746</v>
+        <v>0.1289855771759765</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0362142493506115</v>
+        <v>0.03700205603218776</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3713100309.944737</v>
+        <v>3720100618.480489</v>
       </c>
       <c r="F88" t="n">
-        <v>0.176203629271869</v>
+        <v>0.1153479963343825</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0254437236815145</v>
+        <v>0.02526532769960225</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" t="n">
+        <v>151</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3103427689.216393</v>
+        <v>2873835129.018382</v>
       </c>
       <c r="F89" t="n">
-        <v>0.15923888836322</v>
+        <v>0.1463698143338228</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04156812440128226</v>
+        <v>0.03988041439174835</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1581684250.154503</v>
+        <v>1342651203.299362</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0852114869062079</v>
+        <v>0.0987406250590924</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04530969487047358</v>
+        <v>0.05352292983397042</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1602357095.946034</v>
+        <v>1854583201.146011</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1282292469128728</v>
+        <v>0.1678066551583518</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0375594791004155</v>
+        <v>0.06004626318683257</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2395291629.698678</v>
+        <v>2848130068.788792</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08395044117455289</v>
+        <v>0.09616879707717936</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04643423805292936</v>
+        <v>0.03636899752408202</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4910940554.212161</v>
+        <v>3570471594.964519</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08817301140599894</v>
+        <v>0.1227291326830698</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05332377365336029</v>
+        <v>0.03932326618335466</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>68</v>
+      </c>
+      <c r="J93" t="n">
+        <v>150</v>
+      </c>
+      <c r="K93" t="n">
+        <v>83.48758804101531</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1884381242.004941</v>
+        <v>2073159050.416398</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1233614748609587</v>
+        <v>0.1556159721982164</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04028457458348376</v>
+        <v>0.02828925456133994</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2206840042.636078</v>
+        <v>2991419504.1392</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09998384146056032</v>
+        <v>0.09141172359637145</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04850576769031512</v>
+        <v>0.03274766998046084</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1483098908.092398</v>
+        <v>1464138537.613115</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1415585351743909</v>
+        <v>0.1248494990603782</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0423818313378118</v>
+        <v>0.0402348033796332</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4914049400.001595</v>
+        <v>4038765122.275661</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1257567910647585</v>
+        <v>0.1392626093570483</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0230330385045033</v>
+        <v>0.02337290267636551</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>72</v>
+      </c>
+      <c r="J97" t="n">
+        <v>151</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3689204811.583708</v>
+        <v>2724857869.120277</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1124751514596816</v>
+        <v>0.1096564258161255</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03207850854765608</v>
+        <v>0.02241824235640202</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="n">
+        <v>45.28218141331523</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2847370802.38236</v>
+        <v>2417234026.354773</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09272327133548662</v>
+        <v>0.09421259246643822</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03504367457523525</v>
+        <v>0.02966431318398051</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4313069581.848546</v>
+        <v>4467279824.132368</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1586041999281383</v>
+        <v>0.1788484909659396</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02129893383194506</v>
+        <v>0.02781236000301228</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>63</v>
+      </c>
+      <c r="J100" t="n">
+        <v>150</v>
+      </c>
+      <c r="K100" t="n">
+        <v>127.1769194324062</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2852788337.664676</v>
+        <v>2370204886.536112</v>
       </c>
       <c r="F101" t="n">
-        <v>0.167418274277308</v>
+        <v>0.1436542851937597</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03543709826345968</v>
+        <v>0.03889687930950994</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
